--- a/Gráficos.xlsx
+++ b/Gráficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phtso\OneDrive\Área de Trabalho\Faculdade\2 periodo\AEDS 2\laboratorio\Laboratório - Ordenação 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76A655F-048F-401A-B10B-118302F17507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C028E9-3072-4FC6-BBA4-DA0E0942D438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="730" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="730" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bolha" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,10 @@
     <sheet name="QuickSort" sheetId="7" r:id="rId6"/>
     <sheet name="HeapSort" sheetId="8" r:id="rId7"/>
     <sheet name="CountingSort" sheetId="9" r:id="rId8"/>
+    <sheet name="Pior Caso Quick" sheetId="10" r:id="rId9"/>
+    <sheet name="Meu Algoritmo" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="33">
   <si>
     <t>Valor para N</t>
   </si>
@@ -126,6 +128,12 @@
   <si>
     <t>0.868</t>
   </si>
+  <si>
+    <t>QuickSort</t>
+  </si>
+  <si>
+    <t>Bolha</t>
+  </si>
 </sst>
 </file>
 
@@ -133,7 +141,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -152,12 +160,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -172,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,25 +203,37 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="104">
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -214,7 +246,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -222,7 +254,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -235,7 +267,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -243,7 +287,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -256,7 +300,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -264,7 +308,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -277,15 +321,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -298,7 +342,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -314,7 +366,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -330,7 +385,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -340,7 +395,47 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -365,16 +460,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -382,52 +468,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -466,7 +510,49 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -676,16 +762,16 @@
                 <c:pt idx="3">
                   <c:v>0.42699999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="#.##0000">
+                <c:pt idx="4" formatCode="#,##0.000">
                   <c:v>1.8680000000000001</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#.##0000">
+                <c:pt idx="5" formatCode="#,##0.000">
                   <c:v>7.4379999999999997</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="#.##0000">
+                <c:pt idx="6" formatCode="#,##0.000">
                   <c:v>29.559000000000001</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="#.##0000">
+                <c:pt idx="7" formatCode="#,##0.000">
                   <c:v>114.604</c:v>
                 </c:pt>
               </c:numCache>
@@ -784,19 +870,19 @@
                 <c:pt idx="2">
                   <c:v>0.24299999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="#.##0000">
+                <c:pt idx="3" formatCode="#,##0.000">
                   <c:v>1.0169999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="#.##0000">
+                <c:pt idx="4" formatCode="#,##0.000">
                   <c:v>3.8879999999999999</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#.##0000">
+                <c:pt idx="5" formatCode="#,##0.000">
                   <c:v>15.637</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="#.##0000">
+                <c:pt idx="6" formatCode="#,##0.000">
                   <c:v>63.475000000000001</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="#.##0000">
+                <c:pt idx="7" formatCode="#,##0.000">
                   <c:v>264.726</c:v>
                 </c:pt>
               </c:numCache>
@@ -895,19 +981,19 @@
                 <c:pt idx="2">
                   <c:v>0.27700000000000002</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="#.##0000">
+                <c:pt idx="3" formatCode="#,##0.000">
                   <c:v>1.1779999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="#.##0000">
+                <c:pt idx="4" formatCode="#,##0.000">
                   <c:v>5.2060000000000004</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#.##0000">
+                <c:pt idx="5" formatCode="#,##0.000">
                   <c:v>19.457000000000001</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="#.##0000">
+                <c:pt idx="6" formatCode="#,##0.000">
                   <c:v>73.421999999999997</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="#.##0000">
+                <c:pt idx="7" formatCode="#,##0.000">
                   <c:v>229.70599999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1288,7 +1374,7 @@
             <c:numRef>
               <c:f>MergeSort!$B$20:$B$32</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3.992</c:v>
@@ -1429,7 +1515,7 @@
             <c:numRef>
               <c:f>MergeSort!$C$20:$C$32</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3.992</c:v>
@@ -1570,7 +1656,7 @@
             <c:numRef>
               <c:f>MergeSort!$D$20:$D$32</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>4.016</c:v>
@@ -1706,7 +1792,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#.##0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1992,7 +2078,7 @@
             <c:numRef>
               <c:f>QuickSort!$B$2:$B$15</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2139,7 +2225,7 @@
             <c:numRef>
               <c:f>QuickSort!$C$2:$C$15</c:f>
               <c:numCache>
-                <c:formatCode>0,000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>1E-3</c:v>
@@ -2168,19 +2254,19 @@
                 <c:pt idx="8" formatCode="General">
                   <c:v>3.1E-2</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="#.##0000">
+                <c:pt idx="9" formatCode="#,##0.000">
                   <c:v>6.3E-2</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="#.##0000">
+                <c:pt idx="10" formatCode="#,##0.000">
                   <c:v>0.13300000000000001</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="#.##0000">
+                <c:pt idx="11" formatCode="#,##0.000">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="#.##0000">
+                <c:pt idx="12" formatCode="#,##0.000">
                   <c:v>0.56399999999999995</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="#.##0000">
+                <c:pt idx="13" formatCode="#,##0.000">
                   <c:v>1.17</c:v>
                 </c:pt>
               </c:numCache>
@@ -2286,7 +2372,7 @@
             <c:numRef>
               <c:f>QuickSort!$D$2:$D$15</c:f>
               <c:numCache>
-                <c:formatCode>0,000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2318,16 +2404,16 @@
                 <c:pt idx="9" formatCode="General">
                   <c:v>0.19600000000000001</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="#.##0000">
+                <c:pt idx="10" formatCode="#,##0.000">
                   <c:v>0.40799999999999997</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="#.##0000">
+                <c:pt idx="11" formatCode="#,##0.000">
                   <c:v>0.81799999999999995</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="#.##0000">
+                <c:pt idx="12" formatCode="#,##0.000">
                   <c:v>1.7070000000000001</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="#.##0000">
+                <c:pt idx="13" formatCode="#,##0.000">
                   <c:v>3.4809999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2425,7 +2511,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#.##0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2716,7 +2802,7 @@
             <c:numRef>
               <c:f>QuickSort!$B$21:$B$34</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>3.82</c:v>
@@ -2863,48 +2949,48 @@
             <c:numRef>
               <c:f>QuickSort!$C$21:$C$34</c:f>
               <c:numCache>
-                <c:formatCode>0,000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0" formatCode="#.##0000">
+                <c:pt idx="0" formatCode="#,##0.000">
                   <c:v>3.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.855</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="#.##0000">
+                <c:pt idx="2" formatCode="#,##0.000">
                   <c:v>3.891</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="#.##0000">
+                <c:pt idx="3" formatCode="#,##0.000">
                   <c:v>3.9220000000000002</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="#.##0000">
+                <c:pt idx="4" formatCode="#,##0.000">
                   <c:v>3.984</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#.##0000">
+                <c:pt idx="5" formatCode="#,##0.000">
                   <c:v>4.1050000000000004</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="#.##0000">
+                <c:pt idx="6" formatCode="#,##0.000">
                   <c:v>4.3550000000000004</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="#.##0000">
+                <c:pt idx="7" formatCode="#,##0.000">
                   <c:v>4.84</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="#.##0000">
+                <c:pt idx="8" formatCode="#,##0.000">
                   <c:v>5.8159999999999998</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="#.##0000">
+                <c:pt idx="9" formatCode="#,##0.000">
                   <c:v>7.77</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="#.##0000">
+                <c:pt idx="10" formatCode="#,##0.000">
                   <c:v>11.676</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="#.##0000">
+                <c:pt idx="11" formatCode="#,##0.000">
                   <c:v>19.488</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="#.##0000">
+                <c:pt idx="12" formatCode="#,##0.000">
                   <c:v>35.113</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="#.##0000">
+                <c:pt idx="13" formatCode="#,##0.000">
                   <c:v>66.363</c:v>
                 </c:pt>
               </c:numCache>
@@ -3010,7 +3096,7 @@
             <c:numRef>
               <c:f>QuickSort!$D$21:$D$34</c:f>
               <c:numCache>
-                <c:formatCode>0,000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>3.8239999999999998</c:v>
@@ -3018,40 +3104,40 @@
                 <c:pt idx="1">
                   <c:v>3.859</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="#.##0000">
+                <c:pt idx="2" formatCode="#,##0.000">
                   <c:v>3.895</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="#.##0000">
+                <c:pt idx="3" formatCode="#,##0.000">
                   <c:v>3.9260000000000002</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="#.##0000">
+                <c:pt idx="4" formatCode="#,##0.000">
                   <c:v>3.988</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#.##0000">
+                <c:pt idx="5" formatCode="#,##0.000">
                   <c:v>4.109</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="#.##0000">
+                <c:pt idx="6" formatCode="#,##0.000">
                   <c:v>4.359</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="#.##0000">
+                <c:pt idx="7" formatCode="#,##0.000">
                   <c:v>4.8440000000000003</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="#.##0000">
+                <c:pt idx="8" formatCode="#,##0.000">
                   <c:v>5.82</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="#.##0000">
+                <c:pt idx="9" formatCode="#,##0.000">
                   <c:v>7.7729999999999997</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="#.##0000">
+                <c:pt idx="10" formatCode="#,##0.000">
                   <c:v>11.68</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="#.##0000">
+                <c:pt idx="11" formatCode="#,##0.000">
                   <c:v>19.492000000000001</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="#.##0000">
+                <c:pt idx="12" formatCode="#,##0.000">
                   <c:v>35.116999999999997</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="#.##0000">
+                <c:pt idx="13" formatCode="#,##0.000">
                   <c:v>66.367000000000004</c:v>
                 </c:pt>
               </c:numCache>
@@ -3149,7 +3235,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#.##0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3420,7 +3506,7 @@
             <c:numRef>
               <c:f>HeapSort!$B$2:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3537,7 +3623,7 @@
             <c:numRef>
               <c:f>HeapSort!$C$2:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3654,7 +3740,7 @@
             <c:numRef>
               <c:f>HeapSort!$D$2:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1E-3</c:v>
@@ -3778,7 +3864,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#.##0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4049,7 +4135,7 @@
             <c:numRef>
               <c:f>HeapSort!$B$18:$B$26</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.82</c:v>
@@ -4166,7 +4252,7 @@
             <c:numRef>
               <c:f>HeapSort!$C$18:$C$26</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.82</c:v>
@@ -4283,7 +4369,7 @@
             <c:numRef>
               <c:f>HeapSort!$D$18:$D$26</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.8239999999999998</c:v>
@@ -4407,7 +4493,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#.##0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4675,7 +4761,7 @@
             <c:numRef>
               <c:f>CountingSort!$B$2:$B$9</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4786,7 +4872,7 @@
             <c:numRef>
               <c:f>CountingSort!$C$2:$C$9</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4897,7 +4983,7 @@
             <c:numRef>
               <c:f>CountingSort!$D$2:$D$9</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5018,7 +5104,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#.##0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5291,7 +5377,7 @@
             <c:numRef>
               <c:f>CountingSort!$B$18:$B$25</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.8279999999999998</c:v>
@@ -5402,7 +5488,7 @@
             <c:numRef>
               <c:f>CountingSort!$C$18:$C$25</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.8279999999999998</c:v>
@@ -5513,7 +5599,7 @@
             <c:numRef>
               <c:f>CountingSort!$D$18:$D$25</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.8319999999999999</c:v>
@@ -5634,6 +5720,1057 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466054328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>QuickSort x Bolha</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pior Caso Quick'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QuickSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pior Caso Quick'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pior Caso Quick'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.000">
+                  <c:v>0.871</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.000">
+                  <c:v>3.4060000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B905-46AA-AEF8-C9FFBDC40580}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pior Caso Quick'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bolha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pior Caso Quick'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pior Caso Quick'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.000">
+                  <c:v>1.8680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.000">
+                  <c:v>7.4379999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B905-46AA-AEF8-C9FFBDC40580}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="496830280"/>
+        <c:axId val="496833232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="496830280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496833232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="496833232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496830280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Meu Algoritmo - Memória</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meu Algoritmo'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ordenado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Meu Algoritmo'!$A$14:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Meu Algoritmo'!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>#.##0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8130000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0979999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E45D-424B-8675-08EE43DB3BBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meu Algoritmo'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Não Ordenado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Meu Algoritmo'!$A$14:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Meu Algoritmo'!$C$14:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>#.##0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8130000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0979999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E45D-424B-8675-08EE43DB3BBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meu Algoritmo'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aleatório</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Meu Algoritmo'!$A$14:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Meu Algoritmo'!$D$14:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>#.##0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.887</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1020000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E45D-424B-8675-08EE43DB3BBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="540461584"/>
+        <c:axId val="540458304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="540461584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540458304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540458304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="#.##0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5665,7 +6802,582 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466054328"/>
+        <c:crossAx val="540461584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Meu algoritmo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meu Algoritmo'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ordenado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Meu Algoritmo'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Meu Algoritmo'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0,000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#.##0000">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#.##0000">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E694-4435-8609-54414AB6DE57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meu Algoritmo'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Não Ordenado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Meu Algoritmo'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Meu Algoritmo'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#.##0000">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#.##0000">
+                  <c:v>3.081</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#.##0000">
+                  <c:v>12.709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E694-4435-8609-54414AB6DE57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meu Algoritmo'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aleatório</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Meu Algoritmo'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Meu Algoritmo'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#.##0000">
+                  <c:v>0.311</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#.##0000">
+                  <c:v>1.4830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#.##0000">
+                  <c:v>7.5309999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E694-4435-8609-54414AB6DE57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="542813040"/>
+        <c:axId val="542812712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="542813040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542812712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="542812712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0,000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542813040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6013,7 +7725,7 @@
             <c:numRef>
               <c:f>Bolha!$C$16:$C$23</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.8130000000000002</c:v>
@@ -6124,7 +7836,7 @@
             <c:numRef>
               <c:f>Bolha!$D$16:$D$23</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.8159999999999998</c:v>
@@ -10515,7 +12227,7 @@
             <c:numRef>
               <c:f>MergeSort!$B$2:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2E-3</c:v>
@@ -10685,16 +12397,16 @@
                 <c:pt idx="8">
                   <c:v>0.59699999999999998</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="#.##0000">
+                <c:pt idx="9" formatCode="#,##0.000">
                   <c:v>1.1399999999999999</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="#.##0000">
+                <c:pt idx="10" formatCode="#,##0.000">
                   <c:v>1.466</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="#.##0000">
+                <c:pt idx="11" formatCode="#,##0.000">
                   <c:v>5.6289999999999996</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="#.##0000">
+                <c:pt idx="12" formatCode="#,##0.000">
                   <c:v>6.4260000000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -10829,13 +12541,13 @@
                 <c:pt idx="9">
                   <c:v>0.94399999999999995</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="#.##0000">
+                <c:pt idx="10" formatCode="#,##0.000">
                   <c:v>1.1439999999999999</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="#.##0000">
+                <c:pt idx="11" formatCode="#,##0.000">
                   <c:v>3.141</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="#.##0000">
+                <c:pt idx="12" formatCode="#,##0.000">
                   <c:v>4.0540000000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -10933,7 +12645,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#.##0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11371,6 +13083,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15715,6 +17547,1515 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -19796,6 +23137,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0C483A-BFAD-42CB-B8BE-EFF8BA48E240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C926FB98-6BDB-4D93-935F-60B2AF42955C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B425A997-C3BA-40A1-BDD6-7EA6D1B883E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20355,209 +23773,288 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEDD40D-997C-41D7-A60A-26AC4B0A5B95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6150EDDD-9A13-4FC4-81F4-612558ECB04F}" name="Tabela1" displayName="Tabela1" ref="A1:D9" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6150EDDD-9A13-4FC4-81F4-612558ECB04F}" name="Tabela1" displayName="Tabela1" ref="A1:D9" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
   <autoFilter ref="A1:D9" xr:uid="{6150EDDD-9A13-4FC4-81F4-612558ECB04F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{176EF1E3-78CD-4AF0-A1B5-6E2949E8B72D}" name="Valor para N" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{A2FA50B4-1BD5-47CE-9EF1-6C3D2EF92D79}" name="Ordenado" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{276E793F-539A-43A6-AA87-B8AC1D303945}" name="Não Ordenado" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{A0855BBC-89BC-405E-93DC-CDA966D953FE}" name="Aleatório" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{176EF1E3-78CD-4AF0-A1B5-6E2949E8B72D}" name="Valor para N" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{A2FA50B4-1BD5-47CE-9EF1-6C3D2EF92D79}" name="Ordenado" dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{276E793F-539A-43A6-AA87-B8AC1D303945}" name="Não Ordenado" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{A0855BBC-89BC-405E-93DC-CDA966D953FE}" name="Aleatório" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{700E1C47-B75E-49A9-BE7F-B12999FF1654}" name="Tabela91213" displayName="Tabela91213" ref="A19:D32" totalsRowShown="0" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{700E1C47-B75E-49A9-BE7F-B12999FF1654}" name="Tabela91213" displayName="Tabela91213" ref="A19:D32" totalsRowShown="0" headerRowDxfId="52">
   <autoFilter ref="A19:D32" xr:uid="{700E1C47-B75E-49A9-BE7F-B12999FF1654}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{84057887-0053-420F-AC63-AED18B69FAF0}" name="Valor para N" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{10FB94EB-6BC6-4408-80AE-ED8E54881606}" name="Ordenado" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{0899E40E-0676-4565-B247-F54A5A3BB682}" name="Não Ordenado" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{6CF5D3AF-F6F0-4F29-B0C6-440373EFCD0C}" name="Aleatório" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{84057887-0053-420F-AC63-AED18B69FAF0}" name="Valor para N" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{10FB94EB-6BC6-4408-80AE-ED8E54881606}" name="Ordenado" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{0899E40E-0676-4565-B247-F54A5A3BB682}" name="Não Ordenado" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{6CF5D3AF-F6F0-4F29-B0C6-440373EFCD0C}" name="Aleatório" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{7430E295-B5BD-4989-A05C-9A34C9417D1A}" name="Tabela91214" displayName="Tabela91214" ref="A1:D15" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{7430E295-B5BD-4989-A05C-9A34C9417D1A}" name="Tabela91214" displayName="Tabela91214" ref="A1:D15" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="A1:D15" xr:uid="{7430E295-B5BD-4989-A05C-9A34C9417D1A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{21996C46-0461-4AFB-B79D-DB1B866E1817}" name="Valor para N" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{E465F40E-1D43-45F3-BCD0-D3978F10F379}" name="Ordenado" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{7374AABD-3FE2-4AFF-A458-A215C49FF55C}" name="Não Ordenado" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{9E77614A-C8DD-4518-B3E7-5BEEE481765A}" name="Aleatório" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{21996C46-0461-4AFB-B79D-DB1B866E1817}" name="Valor para N" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{E465F40E-1D43-45F3-BCD0-D3978F10F379}" name="Ordenado" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{7374AABD-3FE2-4AFF-A458-A215C49FF55C}" name="Não Ordenado" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{9E77614A-C8DD-4518-B3E7-5BEEE481765A}" name="Aleatório" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{945B3B5B-8345-4119-97ED-AA35C3783FA4}" name="Tabela9121415" displayName="Tabela9121415" ref="A20:D34" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{945B3B5B-8345-4119-97ED-AA35C3783FA4}" name="Tabela9121415" displayName="Tabela9121415" ref="A20:D34" totalsRowShown="0" headerRowDxfId="42">
   <autoFilter ref="A20:D34" xr:uid="{945B3B5B-8345-4119-97ED-AA35C3783FA4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{459DC622-80DC-402A-B353-2AD9B5C05176}" name="Valor para N" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{8A2B97F7-4308-45CF-9839-19AC5B23307C}" name="Ordenado" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{2B648076-AC2A-4AA4-AE80-8D5DA96CFB48}" name="Não Ordenado" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{5846ED77-E338-4BD6-BF02-BFBEA7D95A55}" name="Aleatório" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{459DC622-80DC-402A-B353-2AD9B5C05176}" name="Valor para N" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{8A2B97F7-4308-45CF-9839-19AC5B23307C}" name="Ordenado" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{2B648076-AC2A-4AA4-AE80-8D5DA96CFB48}" name="Não Ordenado" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{5846ED77-E338-4BD6-BF02-BFBEA7D95A55}" name="Aleatório" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{37366DDC-525C-4B69-8F43-250594E02AD3}" name="Tabela3916" displayName="Tabela3916" ref="A1:D10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{37366DDC-525C-4B69-8F43-250594E02AD3}" name="Tabela3916" displayName="Tabela3916" ref="A1:D10" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:D10" xr:uid="{37366DDC-525C-4B69-8F43-250594E02AD3}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{27C5B98F-75BF-4062-9EB9-3D49747F40EB}" name="Valor para N" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{02C89237-7A18-4550-992D-9FC142B7B1F3}" name="Ordenado" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{571DA3E9-16A5-4026-9C51-403EBEF852F2}" name="Não Ordenado" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{DEC43C7A-D924-4E75-A68D-0E16BD93A3A6}" name="Aleatório" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{27C5B98F-75BF-4062-9EB9-3D49747F40EB}" name="Valor para N" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{02C89237-7A18-4550-992D-9FC142B7B1F3}" name="Ordenado" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{571DA3E9-16A5-4026-9C51-403EBEF852F2}" name="Não Ordenado" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{DEC43C7A-D924-4E75-A68D-0E16BD93A3A6}" name="Aleatório" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{330164DC-5AD2-4DCA-9C85-458A2545FC53}" name="Tabela391617" displayName="Tabela391617" ref="A17:D26" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{330164DC-5AD2-4DCA-9C85-458A2545FC53}" name="Tabela391617" displayName="Tabela391617" ref="A17:D26" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A17:D26" xr:uid="{330164DC-5AD2-4DCA-9C85-458A2545FC53}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CD3EE8FC-7EBD-4BB5-BB94-B723174B182E}" name="Valor para N" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{042CDCAF-F2DD-4A10-A514-751CAE9C3AE7}" name="Ordenado" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{B62E4D36-E93C-4CC6-BB32-7B577738432B}" name="Não Ordenado" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{F13D4616-35C5-4425-9E5E-20E4A09EB262}" name="Aleatório" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{CD3EE8FC-7EBD-4BB5-BB94-B723174B182E}" name="Valor para N" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{042CDCAF-F2DD-4A10-A514-751CAE9C3AE7}" name="Ordenado" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{B62E4D36-E93C-4CC6-BB32-7B577738432B}" name="Não Ordenado" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{F13D4616-35C5-4425-9E5E-20E4A09EB262}" name="Aleatório" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EAAC6CAA-F9E5-454D-BE0A-FB1C36CE1ED0}" name="Tabela391618" displayName="Tabela391618" ref="A1:D9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EAAC6CAA-F9E5-454D-BE0A-FB1C36CE1ED0}" name="Tabela391618" displayName="Tabela391618" ref="A1:D9" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:D9" xr:uid="{EAAC6CAA-F9E5-454D-BE0A-FB1C36CE1ED0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6159BE3C-E54A-4047-B556-CF60CA78EC64}" name="Valor para N" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{2346D341-9C7D-43BD-B1CA-902463AEDF47}" name="Ordenado" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{F003468E-06EF-4507-80AB-E8AE32C1175A}" name="Não Ordenado" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{AC2D41CD-2803-4FF6-B0A8-4BE14D70FE24}" name="Aleatório" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{6159BE3C-E54A-4047-B556-CF60CA78EC64}" name="Valor para N" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{2346D341-9C7D-43BD-B1CA-902463AEDF47}" name="Ordenado" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{F003468E-06EF-4507-80AB-E8AE32C1175A}" name="Não Ordenado" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{AC2D41CD-2803-4FF6-B0A8-4BE14D70FE24}" name="Aleatório" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{4D63E6D8-E12E-4421-A547-2C4882D2D30C}" name="Tabela39161819" displayName="Tabela39161819" ref="A17:D25" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{4D63E6D8-E12E-4421-A547-2C4882D2D30C}" name="Tabela39161819" displayName="Tabela39161819" ref="A17:D25" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A17:D25" xr:uid="{4D63E6D8-E12E-4421-A547-2C4882D2D30C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8D31408A-8E5A-429E-81BA-5CCAD8A9EEA1}" name="Valor para N" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{EE587F40-B540-4EAB-A3CD-A8C8B871D4E3}" name="Ordenado" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{58E884B3-F7F5-4996-914B-1635147186F5}" name="Não Ordenado" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{7CC444A0-ECA5-4AA3-9E51-C6C4AB61ED10}" name="Aleatório" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8D31408A-8E5A-429E-81BA-5CCAD8A9EEA1}" name="Valor para N" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{EE587F40-B540-4EAB-A3CD-A8C8B871D4E3}" name="Ordenado" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{58E884B3-F7F5-4996-914B-1635147186F5}" name="Não Ordenado" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{7CC444A0-ECA5-4AA3-9E51-C6C4AB61ED10}" name="Aleatório" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ED085C99-0691-4343-9CBD-68F8C85EB7A7}" name="Tabela4" displayName="Tabela4" ref="A1:C7" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A1:C7" xr:uid="{ED085C99-0691-4343-9CBD-68F8C85EB7A7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{70D50E55-E01B-411C-9FA7-E220D6C1E962}" name="Valor para N" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{E6F3D2DA-FAF6-4570-AE16-ADC06AA21871}" name="QuickSort"/>
+    <tableColumn id="3" xr3:uid="{E41DF9A0-0CE3-445B-8454-0D1F8E21CDE0}" name="Bolha"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FA633F80-DEE0-4E4D-AA43-F4AFDAD90CD8}" name="Tabela26" displayName="Tabela26" ref="A1:D7" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D7" xr:uid="{FA633F80-DEE0-4E4D-AA43-F4AFDAD90CD8}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{79AA3BC7-2F9B-440B-9EB0-7655B58752B0}" name="Valor para N" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{BF73E994-EFE0-49E3-83B0-DCDBB44C85A1}" name="Ordenado" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{B5FFBAF8-731C-4944-8455-E462FEB8FFC5}" name="Não Ordenado" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{CDA3130A-5282-42A3-9C44-7ADDD3DDC8D1}" name="Aleatório" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{2712DAC2-04C1-497E-9262-8740E83770C9}" name="Tabela2620" displayName="Tabela2620" ref="A13:D19" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A13:D19" xr:uid="{2712DAC2-04C1-497E-9262-8740E83770C9}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{13132A57-BF34-4BF5-93DB-2BE452494AB1}" name="Valor para N" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C9AB9014-752B-4D5F-ADB2-22DC894CE2AB}" name="Ordenado" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{2CCE7AC6-4E61-4517-8547-9156984F1B9B}" name="Não Ordenado" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F0DA3F26-09AD-4E09-9FD0-86134BE395B4}" name="Aleatório" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{885894FC-F4AE-4E0C-90D3-4989B3A2E139}" name="Tabela17" displayName="Tabela17" ref="A15:D23" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{885894FC-F4AE-4E0C-90D3-4989B3A2E139}" name="Tabela17" displayName="Tabela17" ref="A15:D23" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
   <autoFilter ref="A15:D23" xr:uid="{885894FC-F4AE-4E0C-90D3-4989B3A2E139}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{12151DE0-9F27-4A6D-9830-E0946AFD5AC5}" name="Valor para N" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{E3DCDB8A-F46A-468F-A397-48217F30AF84}" name="Ordenado" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{37B8C546-4416-4EBF-A22E-652D1092713C}" name="Não Ordenado" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{83C16D6E-392B-4E14-90D8-3244794E60EE}" name="Aleatório" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{12151DE0-9F27-4A6D-9830-E0946AFD5AC5}" name="Valor para N" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{E3DCDB8A-F46A-468F-A397-48217F30AF84}" name="Ordenado" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{37B8C546-4416-4EBF-A22E-652D1092713C}" name="Não Ordenado" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{83C16D6E-392B-4E14-90D8-3244794E60EE}" name="Aleatório" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{32A4FCED-7ECC-4CBD-AD68-50E11149593B}" name="Tabela2" displayName="Tabela2" ref="A1:D9" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{32A4FCED-7ECC-4CBD-AD68-50E11149593B}" name="Tabela2" displayName="Tabela2" ref="A1:D9" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
   <autoFilter ref="A1:D9" xr:uid="{32A4FCED-7ECC-4CBD-AD68-50E11149593B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E5FCC2CD-0FE4-4405-AA1E-A29E30FDB988}" name="Valor para N" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{501B9777-8192-4382-9372-C95686961BD5}" name="Ordenado" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{B2A3CA8D-DCB0-4CE0-9EBA-2B1468769D32}" name="Não Ordenado" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{7BC1999C-E385-4504-AFE9-3017C203C222}" name="Aleatório" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{E5FCC2CD-0FE4-4405-AA1E-A29E30FDB988}" name="Valor para N" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{501B9777-8192-4382-9372-C95686961BD5}" name="Ordenado" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{B2A3CA8D-DCB0-4CE0-9EBA-2B1468769D32}" name="Não Ordenado" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{7BC1999C-E385-4504-AFE9-3017C203C222}" name="Aleatório" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{56D51D24-38B8-4F10-932F-ACEB43F8AE73}" name="Tabela178" displayName="Tabela178" ref="A16:D24" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{56D51D24-38B8-4F10-932F-ACEB43F8AE73}" name="Tabela178" displayName="Tabela178" ref="A16:D24" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <autoFilter ref="A16:D24" xr:uid="{56D51D24-38B8-4F10-932F-ACEB43F8AE73}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6C752F66-91C4-4BB0-B40D-1DC57BB361DF}" name="Valor para N" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{820C0C13-8F93-49FE-8EDC-307C5F116DF4}" name="Ordenado" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{0857A328-9DE6-459D-8033-CFD9D954CE59}" name="Não Ordenado" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{AE5F060E-0A8A-468D-988D-B1F24AAC82D4}" name="Aleatório" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{6C752F66-91C4-4BB0-B40D-1DC57BB361DF}" name="Valor para N" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{820C0C13-8F93-49FE-8EDC-307C5F116DF4}" name="Ordenado" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{0857A328-9DE6-459D-8033-CFD9D954CE59}" name="Não Ordenado" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{AE5F060E-0A8A-468D-988D-B1F24AAC82D4}" name="Aleatório" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C87B1E11-4A95-4536-ABA3-63D42BA3B441}" name="Tabela3" displayName="Tabela3" ref="A1:D10" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C87B1E11-4A95-4536-ABA3-63D42BA3B441}" name="Tabela3" displayName="Tabela3" ref="A1:D10" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A1:D10" xr:uid="{C87B1E11-4A95-4536-ABA3-63D42BA3B441}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{756DDD4E-F603-42E3-BAFC-98A646F3B3B4}" name="Valor para N" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{EA066EA5-AAA8-47DC-88E0-D579643D87BC}" name="Ordenado" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{6708977F-D084-49DF-B310-A22B82CBE9E9}" name="Não Ordenado" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{45C07F10-1234-4084-A68E-F28B8A7B6204}" name="Aleatório" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{756DDD4E-F603-42E3-BAFC-98A646F3B3B4}" name="Valor para N" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{EA066EA5-AAA8-47DC-88E0-D579643D87BC}" name="Ordenado" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{6708977F-D084-49DF-B310-A22B82CBE9E9}" name="Não Ordenado" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{45C07F10-1234-4084-A68E-F28B8A7B6204}" name="Aleatório" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84D93820-33E3-4082-958E-AA459CE2D91A}" name="Tabela39" displayName="Tabela39" ref="A18:D27" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84D93820-33E3-4082-958E-AA459CE2D91A}" name="Tabela39" displayName="Tabela39" ref="A18:D27" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="A18:D27" xr:uid="{84D93820-33E3-4082-958E-AA459CE2D91A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A2AFC001-EAE3-4734-B80F-94968D5D56AD}" name="Valor para N" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{973C8A54-5B53-42A4-9FE6-7D25F011FF15}" name="Ordenado" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{CAFDA8C2-868B-4643-BCC8-B4C54B377FDD}" name="Não Ordenado" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{61672EF1-461E-42DA-8230-C0124695FC29}" name="Aleatório" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{A2AFC001-EAE3-4734-B80F-94968D5D56AD}" name="Valor para N" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{973C8A54-5B53-42A4-9FE6-7D25F011FF15}" name="Ordenado" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{CAFDA8C2-868B-4643-BCC8-B4C54B377FDD}" name="Não Ordenado" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{61672EF1-461E-42DA-8230-C0124695FC29}" name="Aleatório" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4CE19142-65E6-498E-BA2B-C85ED0A465AB}" name="Tabela9" displayName="Tabela9" ref="A1:D15" totalsRowShown="0" headerRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4CE19142-65E6-498E-BA2B-C85ED0A465AB}" name="Tabela9" displayName="Tabela9" ref="A1:D15" totalsRowShown="0" headerRowDxfId="67">
   <autoFilter ref="A1:D15" xr:uid="{4CE19142-65E6-498E-BA2B-C85ED0A465AB}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E1916431-69EB-4B01-8C09-DA0036FB999A}" name="Valor para N" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{B2C86561-6243-44EA-8F22-552044E4C8C0}" name="Ordenado" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{EE5175B0-9538-4F95-BB18-23AF615B99C7}" name="Não Ordenado" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{91B7CB40-64F6-43BC-AF24-F4E05325DB0C}" name="Aleatório" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{E1916431-69EB-4B01-8C09-DA0036FB999A}" name="Valor para N" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{B2C86561-6243-44EA-8F22-552044E4C8C0}" name="Ordenado" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{EE5175B0-9538-4F95-BB18-23AF615B99C7}" name="Não Ordenado" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{91B7CB40-64F6-43BC-AF24-F4E05325DB0C}" name="Aleatório" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C54EB746-8CC1-46BF-9944-90F38B4D0E38}" name="Tabela911" displayName="Tabela911" ref="A20:D34" totalsRowShown="0" headerRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C54EB746-8CC1-46BF-9944-90F38B4D0E38}" name="Tabela911" displayName="Tabela911" ref="A20:D34" totalsRowShown="0" headerRowDxfId="62">
   <autoFilter ref="A20:D34" xr:uid="{C54EB746-8CC1-46BF-9944-90F38B4D0E38}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{13AE9DE3-1253-44C2-837B-4A13267EC258}" name="Valor para N" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{A09E25D1-8D39-4B89-96C3-185EC74C3B7E}" name="Ordenado" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{950FBA29-8027-48BC-AE06-BDF6DC02189C}" name="Não Ordenado" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{6CD17F5C-E873-4EE6-9B8B-8686B49276D6}" name="Aleatório" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{13AE9DE3-1253-44C2-837B-4A13267EC258}" name="Valor para N" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{A09E25D1-8D39-4B89-96C3-185EC74C3B7E}" name="Ordenado" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{950FBA29-8027-48BC-AE06-BDF6DC02189C}" name="Não Ordenado" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{6CD17F5C-E873-4EE6-9B8B-8686B49276D6}" name="Aleatório" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{797B913C-8A5C-48B0-916D-3D5FF8B3CAED}" name="Tabela912" displayName="Tabela912" ref="A1:D14" totalsRowShown="0" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{797B913C-8A5C-48B0-916D-3D5FF8B3CAED}" name="Tabela912" displayName="Tabela912" ref="A1:D14" totalsRowShown="0" headerRowDxfId="57">
   <autoFilter ref="A1:D14" xr:uid="{797B913C-8A5C-48B0-916D-3D5FF8B3CAED}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D2288D70-EA71-46EB-9C11-E550DFAF84D0}" name="Valor para N" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{04F85C30-899F-4A36-9DE1-D271A6929E7C}" name="Ordenado" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{E91A3717-D7C4-49A2-8790-F085F3F5F745}" name="Não Ordenado" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{2407E886-B57F-4610-BE62-8401A41AE7CB}" name="Aleatório" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{D2288D70-EA71-46EB-9C11-E550DFAF84D0}" name="Valor para N" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{04F85C30-899F-4A36-9DE1-D271A6929E7C}" name="Ordenado" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{E91A3717-D7C4-49A2-8790-F085F3F5F745}" name="Não Ordenado" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{2407E886-B57F-4610-BE62-8401A41AE7CB}" name="Aleatório" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -20828,8 +24325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21105,12 +24602,236 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9B5438-253F-4046-B073-2527886A70F0}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>8000</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>16000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>32000</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.081</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.4830000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>64000</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12.709</v>
+      </c>
+      <c r="D7" s="4">
+        <v>7.5309999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3.8159999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>4000</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3.8479999999999999</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3.8479999999999999</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3.8519999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>8000</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3.883</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3.883</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3.887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16000</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3.9140000000000001</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3.9140000000000001</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3.9180000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>32000</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3.9769999999999999</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3.9769999999999999</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>64000</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4.0979999999999999</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4.0979999999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6098B455-EDCF-473B-B050-754ED791092C}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21389,8 +25110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2570AD-655C-4A8A-AFC6-4EF4ED3E307B}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21698,8 +25419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0634E908-DCA2-49EB-A3C5-57594560CED7}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22147,8 +25868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6148398-9837-4D14-AE80-9667913877C7}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22576,7 +26297,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D34"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23025,7 +26746,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23335,8 +27056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C00C9A7-3ED5-4D3F-A648-11CA2C50AADF}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23615,4 +27336,121 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F7900A-1A53-418A-B30E-497B2EBFF34F}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>4000</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>8000</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>16000</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>32000</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.871</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1.8680000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>64000</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3.4060000000000001</v>
+      </c>
+      <c r="C7" s="9">
+        <v>7.4379999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>